--- a/PhoenixCI/Excel_Template/60210.xlsx
+++ b/PhoenixCI/Excel_Template/60210.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{089F4471-57A4-4609-9846-C3656DAEF29E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17FA856-7589-4A18-877C-E8E1C8F79A7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="11715" windowHeight="8670" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="60211" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -736,7 +735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,25 +751,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -779,7 +784,7 @@
     <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -800,7 +805,7 @@
     <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -848,16 +853,31 @@
     <xf numFmtId="222" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="221" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="222" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="212" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="212" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="212" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -879,6 +899,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1274,17 +1300,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1292,331 +1318,331 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="18" t="str">
+      <c r="B4" s="62"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="20" t="str">
         <f t="shared" ref="E4:E10" si="0" xml:space="preserve"> IF(C4=0,"-",ROUND((D4 / (C4 - D4)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="18" t="str">
+      <c r="B5" s="53"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="18" t="str">
+      <c r="B6" s="53"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="18" t="str">
+      <c r="B7" s="53"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="18" t="str">
+      <c r="B8" s="53"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="38"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="45"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="18" t="str">
+      <c r="B9" s="53"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="18" t="str">
+      <c r="B10" s="66"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="18" t="str">
+      <c r="B12" s="62"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="20" t="str">
         <f xml:space="preserve"> IF(C12=0,"-",ROUND((D12 / (C12 - D12)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="24" t="str">
+      <c r="F12" s="14"/>
+      <c r="G12" s="26" t="str">
         <f>IF(C12=0,"-",TEXT(C12-C4,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="18" t="str">
+      <c r="B13" s="53"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="20" t="str">
         <f xml:space="preserve"> IF(C13=0,"-",ROUND((D13 / (C13 - D13)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="15" t="str">
+      <c r="F13" s="15"/>
+      <c r="G13" s="17" t="str">
         <f>IF(C13=0,"-",TEXT(C13-C4,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="18" t="str">
+      <c r="B14" s="53"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="20" t="str">
         <f t="shared" ref="E14:E22" si="1" xml:space="preserve"> IF(C14=0,"-",ROUND((D14 / (C14 - D14)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15" t="str">
+      <c r="F14" s="15"/>
+      <c r="G14" s="17" t="str">
         <f>IF(C14=0,"-",TEXT(C14-C6,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="18" t="str">
+      <c r="B15" s="53"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="20" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="15" t="str">
+      <c r="F15" s="15"/>
+      <c r="G15" s="17" t="str">
         <f>IF(C15=0,"-",TEXT(C15-C7,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="18" t="str">
+      <c r="B16" s="53"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="20" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="15" t="str">
+      <c r="F16" s="15"/>
+      <c r="G16" s="17" t="str">
         <f>IF(C16=0,"-",TEXT(C16 - C9,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="18" t="str">
+      <c r="B17" s="53"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="20" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="15" t="str">
+      <c r="F17" s="15"/>
+      <c r="G17" s="17" t="str">
         <f>IF(C17=0,"-",TEXT(C17-C10,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="18" t="str">
+      <c r="B18" s="53"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="20" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="30"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="18" t="str">
+      <c r="B19" s="53"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="20" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="18" t="str">
+      <c r="B20" s="53"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="20" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="30"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="45" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="1:10" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="18" t="str">
+      <c r="B21" s="56"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="41" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="30"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="18" t="str">
+      <c r="B22" s="53"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="20" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="15" t="str">
+      <c r="F22" s="24"/>
+      <c r="G22" s="17" t="str">
         <f>IF(C22=0,"-",TEXT( C22-C5,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="19" t="str">
+      <c r="B23" s="64"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="21" t="str">
         <f xml:space="preserve"> IF(C23 =0,"-",ROUND((D23 / (C23 - D23)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="16" t="str">
+      <c r="F23" s="25"/>
+      <c r="G23" s="18" t="str">
         <f>IF(C23=0,"-",TEXT(C23 - C8,"#0.00"))</f>
         <v>-</v>
       </c>
@@ -1624,53 +1650,53 @@
     <row r="24" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="21"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="60"/>
+      <c r="C25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="27" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52" t="s">
+      <c r="A26" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="18" t="str">
+      <c r="B26" s="62"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="20" t="str">
         <f xml:space="preserve"> IF(C26 =0,"-",ROUND((D26 / (C26 - D26)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="24" t="str">
+      <c r="F26" s="14"/>
+      <c r="G26" s="26" t="str">
         <f>IF(C26=0,"-",TEXT(C26 - H26,"#0.00"))</f>
         <v>-</v>
       </c>
-      <c r="H26" s="29"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="5"/>
@@ -1684,7 +1710,7 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="6"/>
@@ -1693,20 +1719,23 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
     </row>
     <row r="33" spans="5:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="H33" s="48" t="s">
+      <c r="F33" s="8"/>
+      <c r="H33" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="49"/>
+      <c r="I33" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="32">

--- a/PhoenixCI/Excel_Template/60210.xlsx
+++ b/PhoenixCI/Excel_Template/60210.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B17FA856-7589-4A18-877C-E8E1C8F79A7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{089F4471-57A4-4609-9846-C3656DAEF29E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="11715" windowHeight="8670" tabRatio="788"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788"/>
   </bookViews>
   <sheets>
     <sheet name="60211" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -735,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -751,31 +752,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -784,7 +779,7 @@
     <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="184" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -805,7 +800,7 @@
     <xf numFmtId="184" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -853,31 +848,16 @@
     <xf numFmtId="222" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="222" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="212" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="212" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="212" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -899,12 +879,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1300,17 +1274,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1318,331 +1292,331 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="11" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="47"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="20" t="str">
+      <c r="B4" s="53"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="18" t="str">
         <f t="shared" ref="E4:E10" si="0" xml:space="preserve"> IF(C4=0,"-",ROUND((D4 / (C4 - D4)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="49"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="20" t="str">
+      <c r="B5" s="46"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="20" t="str">
+      <c r="B6" s="46"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="20" t="str">
+      <c r="B7" s="46"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="20" t="str">
+      <c r="B8" s="46"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="45"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="20" t="str">
+      <c r="B9" s="46"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="20" t="str">
+      <c r="B10" s="57"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="18" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="45"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="20" t="str">
+      <c r="B12" s="53"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="18" t="str">
         <f xml:space="preserve"> IF(C12=0,"-",ROUND((D12 / (C12 - D12)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="26" t="str">
+      <c r="F12" s="12"/>
+      <c r="G12" s="24" t="str">
         <f>IF(C12=0,"-",TEXT(C12-C4,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="20" t="str">
+      <c r="B13" s="46"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="18" t="str">
         <f xml:space="preserve"> IF(C13=0,"-",ROUND((D13 / (C13 - D13)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="17" t="str">
+      <c r="F13" s="13"/>
+      <c r="G13" s="15" t="str">
         <f>IF(C13=0,"-",TEXT(C13-C4,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="20" t="str">
+      <c r="B14" s="46"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="18" t="str">
         <f t="shared" ref="E14:E22" si="1" xml:space="preserve"> IF(C14=0,"-",ROUND((D14 / (C14 - D14)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17" t="str">
+      <c r="F14" s="13"/>
+      <c r="G14" s="15" t="str">
         <f>IF(C14=0,"-",TEXT(C14-C6,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="20" t="str">
+      <c r="B15" s="46"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="18" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="17" t="str">
+      <c r="F15" s="13"/>
+      <c r="G15" s="15" t="str">
         <f>IF(C15=0,"-",TEXT(C15-C7,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="20" t="str">
+      <c r="B16" s="46"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="18" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="17" t="str">
+      <c r="F16" s="13"/>
+      <c r="G16" s="15" t="str">
         <f>IF(C16=0,"-",TEXT(C16 - C9,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="20" t="str">
+      <c r="B17" s="46"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="18" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="17" t="str">
+      <c r="F17" s="13"/>
+      <c r="G17" s="15" t="str">
         <f>IF(C17=0,"-",TEXT(C17-C10,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="20" t="str">
+      <c r="B18" s="46"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="18" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="32"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:10" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="20" t="str">
+      <c r="B19" s="46"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="18" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="32"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="20" t="str">
+      <c r="B20" s="46"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="18" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="1:10" s="43" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41" t="str">
+      <c r="B21" s="46"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="18" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="32"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="20" t="str">
+      <c r="B22" s="46"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="18" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="17" t="str">
+      <c r="F22" s="22"/>
+      <c r="G22" s="15" t="str">
         <f>IF(C22=0,"-",TEXT( C22-C5,"#0.00"))</f>
         <v>-</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="21" t="str">
+      <c r="B23" s="55"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="19" t="str">
         <f xml:space="preserve"> IF(C23 =0,"-",ROUND((D23 / (C23 - D23)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="18" t="str">
+      <c r="F23" s="23"/>
+      <c r="G23" s="16" t="str">
         <f>IF(C23=0,"-",TEXT(C23 - C8,"#0.00"))</f>
         <v>-</v>
       </c>
@@ -1650,53 +1624,53 @@
     <row r="24" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="23"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="21"/>
     </row>
     <row r="25" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="51"/>
+      <c r="C25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="25" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="20" t="str">
+      <c r="B26" s="53"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="18" t="str">
         <f xml:space="preserve"> IF(C26 =0,"-",ROUND((D26 / (C26 - D26)) * 100,2))</f>
         <v>-</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="26" t="str">
+      <c r="F26" s="12"/>
+      <c r="G26" s="24" t="str">
         <f>IF(C26=0,"-",TEXT(C26 - H26,"#0.00"))</f>
         <v>-</v>
       </c>
-      <c r="H26" s="31"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="5"/>
@@ -1710,7 +1684,7 @@
       <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="6"/>
@@ -1719,23 +1693,20 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="33" spans="5:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="H33" s="57" t="s">
+      <c r="F33" s="5"/>
+      <c r="H33" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="58"/>
+      <c r="I33" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="32">
